--- a/i_codebooks/D3_clean_all_vaccines.xlsx
+++ b/i_codebooks/D3_clean_all_vaccines.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="90">
   <si>
     <t>medatata_name</t>
   </si>
@@ -185,9 +185,6 @@
     <t>distance_btw_1_2_doses</t>
   </si>
   <si>
-    <t>eliminates records of a second dose that is too close to a first dose</t>
-  </si>
-  <si>
     <t>distance_btw_2_3_doses</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>dose_after_4</t>
   </si>
   <si>
-    <t>eliminates records of a dose higher than 4</t>
-  </si>
-  <si>
     <t>manufacturer_not_in_study</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
   </si>
   <si>
     <t>label from the VaccO ontology</t>
-  </si>
-  <si>
-    <t>VaccO ontology, as specified in the CDM Vocabulary at this link https://docs.google.com/spreadsheets/d/1vPZwzQyjXlmmE1vvx3r1Jkw3Juz2DLjU9dKgEo8MijE/edit#gid=540144397, restricted to vaccines in Table 4 of the SAP</t>
   </si>
   <si>
     <t>in principle, based on ATC, but may eventually be datasource-specific</t>
@@ -329,9 +320,6 @@
     <t>doses higher than maximum are removed</t>
   </si>
   <si>
-    <t>threshold: vaccine-specifi (if any)</t>
-  </si>
-  <si>
     <t>eliminates records with same person_id, vx_dose, date_curated, manufacturer_curated, vacco_id</t>
   </si>
   <si>
@@ -339,6 +327,27 @@
   </si>
   <si>
     <t>criteria to be establoshed in the SAP, see https://github.com/VAC4EU/ROC18_development/issues/2#issuecomment-1994994991</t>
+  </si>
+  <si>
+    <t>vx_type</t>
+  </si>
+  <si>
+    <t>vaccine type</t>
+  </si>
+  <si>
+    <t>VaccO ontology, as specified in the SAP</t>
+  </si>
+  <si>
+    <t>vaccine type, as specified in the CDM Vocabulary at this link https://docs.google.com/spreadsheets/d/1vPZwzQyjXlmmE1vvx3r1Jkw3Juz2DLjU9dKgEo8MijE/edit#gid=540144397, restricted to vaccines in Table 4 of the SAP</t>
+  </si>
+  <si>
+    <t>eliminates records of a dose higher than the level requested for this vacco_id</t>
+  </si>
+  <si>
+    <t>eliminates records of a (n+1)-th dose that is too close to a n-th dose</t>
+  </si>
+  <si>
+    <t>threshold: vaccine-specific (if any)</t>
   </si>
 </sst>
 </file>
@@ -982,7 +991,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.35">
@@ -1012,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.35">
@@ -1020,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.35">
@@ -1064,13 +1073,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1167,9 @@
         <v>28</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="C4" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="21"/>
       <c r="F4" s="21" t="s">
         <v>29</v>
@@ -1205,116 +1216,119 @@
     </row>
     <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="I7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="F8" s="31"/>
       <c r="I8" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="I12" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>42</v>
@@ -1328,10 +1342,10 @@
     </row>
     <row r="14" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>42</v>
@@ -1339,19 +1353,16 @@
       <c r="D14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="I14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>42</v>
@@ -1359,8 +1370,8 @@
       <c r="D15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>82</v>
+      <c r="E15" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>24</v>
@@ -1368,10 +1379,10 @@
     </row>
     <row r="16" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>42</v>
@@ -1379,41 +1390,58 @@
       <c r="D16" s="23" t="s">
         <v>45</v>
       </c>
+      <c r="E16" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="I16" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1424,6 +1452,9 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1445,13 +1476,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
         <v>43</v>
@@ -1532,18 +1563,18 @@
         <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="6">
         <v>44197</v>
@@ -1555,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6">
         <v>44197</v>
@@ -1564,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1596,7 +1627,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6">
         <v>44221</v>
@@ -1608,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6">
         <v>44221</v>
@@ -1617,10 +1648,10 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1649,7 +1680,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6">
         <v>44287</v>
@@ -1661,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6">
         <v>44287</v>
@@ -1670,10 +1701,10 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1702,7 +1733,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6">
         <v>44359</v>
@@ -1714,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6">
         <v>44359</v>
@@ -1723,10 +1754,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1755,7 +1786,7 @@
     </row>
     <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>44364</v>
@@ -1767,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="10">
         <v>44364</v>
@@ -1776,10 +1807,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
@@ -1808,7 +1839,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6">
         <v>44428</v>
@@ -1820,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="6">
         <v>44428</v>
@@ -1829,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1861,7 +1892,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6">
         <v>44407</v>
@@ -1873,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="6">
         <v>44407</v>
@@ -1882,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1914,7 +1945,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6">
         <v>44318</v>
@@ -1926,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6">
         <v>44318</v>
@@ -1935,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1967,7 +1998,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6">
         <v>44404</v>
@@ -1979,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="6">
         <v>44404</v>
@@ -1988,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2020,7 +2051,7 @@
     </row>
     <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12">
         <v>44345</v>
@@ -2032,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="12">
         <v>44345</v>
@@ -2041,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
@@ -2074,7 +2105,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8">
         <v>44323</v>
@@ -2086,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="8">
         <v>44323</v>
@@ -2095,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
@@ -2128,7 +2159,7 @@
     </row>
     <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12">
         <v>44358</v>
@@ -2140,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="12">
         <v>44358</v>
@@ -2149,10 +2180,10 @@
         <v>2</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J13" s="13">
         <v>0</v>
@@ -2182,7 +2213,7 @@
     </row>
     <row r="14" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12">
         <v>44401</v>
@@ -2194,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="12">
         <v>44401</v>
@@ -2203,10 +2234,10 @@
         <v>3</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="13">
         <v>0</v>
@@ -2240,15 +2271,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
@@ -2258,6 +2280,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2506,14 +2537,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2526,6 +2549,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/i_codebooks/D3_clean_all_vaccines.xlsx
+++ b/i_codebooks/D3_clean_all_vaccines.xlsx
@@ -347,7 +347,7 @@
     <t>eliminates records of a (n+1)-th dose that is too close to a n-th dose</t>
   </si>
   <si>
-    <t>threshold: vaccine-specific (if any)</t>
+    <t>threshold: 1 month (covid vaccines are in a separate table)</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1076,10 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2271,6 +2271,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
@@ -2280,15 +2289,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2537,6 +2537,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2549,14 +2557,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
